--- a/daftar kelompok.xlsx
+++ b/daftar kelompok.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTIKOM\KULIAH\PEMROGRAMAN FRAMEWORK\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WWW\aplikasi-portal-mahasiswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="smt 6-1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="393">
   <si>
     <t xml:space="preserve"> Adi Suprono</t>
   </si>
@@ -1199,6 +1199,12 @@
   </si>
   <si>
     <t>FORM BIODATA</t>
+  </si>
+  <si>
+    <t>TUGAS 1 (UI HTML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tugas 2 </t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,15 +1561,15 @@
     <col min="4" max="4" width="87.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>285</v>
       </c>
@@ -1574,10 +1580,13 @@
         <v>287</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="E3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1591,7 +1600,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1605,7 +1614,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1675,7 +1684,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1703,7 +1712,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1717,7 +1726,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1731,7 +1740,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1745,7 +1754,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2990,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
